--- a/Result/VAR/Service/GBR.xlsx
+++ b/Result/VAR/Service/GBR.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,253 +460,263 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7501131516837489</v>
+        <v>68.02329931382778</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.05648302353908718</v>
+        <v>68.06687632970952</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9010476972725314</v>
+        <v>68.5438299901289</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.547060898870598</v>
+        <v>68.98772240466559</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>5.760455355628253</v>
+        <v>68.91545451950354</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3443874834353124</v>
+        <v>65.63193534547509</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1196163006403594</v>
+        <v>65.78743840151026</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3714144845574765</v>
+        <v>66.20082629547714</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1222062379397073</v>
+        <v>66.57872160372045</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>1.40637844632036</v>
+        <v>66.68904513991515</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.09958648217146</v>
+        <v>66.6152315027792</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3518664516418397</v>
+        <v>67.61442617075112</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03648851137563724</v>
+        <v>68.43528711101776</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2522455855177412</v>
+        <v>69.03396865700645</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4598800966557519</v>
+        <v>69.43651585756811</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6083764445861277</v>
+        <v>69.77072117389653</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.3952551764247545</v>
+        <v>69.65556947375694</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>1.611577091063779</v>
+        <v>70.10021158000089</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.740212497051914</v>
+        <v>70.25233692849474</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4866284249481367</v>
+        <v>71.36444301958923</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>0.665381658969082</v>
+        <v>70.76077494770277</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.5166989637922654</v>
+        <v>70.32317768917929</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5783375602193956</v>
+        <v>70.30755671649591</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1252449010128203</v>
+        <v>70.00729207014109</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2320776216657237</v>
+        <v>70.04265577216293</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B27" t="n">
+        <v>70.11009934902495</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -754,7 +764,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1605867007805325</v>
+        <v>70.42247339660403</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -764,7 +774,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04485904729212636</v>
+        <v>69.89048660272515</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -774,7 +784,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.02736327055552561</v>
+        <v>69.40702931894386</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -784,7 +794,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.005701303192167199</v>
+        <v>68.94396714117777</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -794,7 +804,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.01261514739162986</v>
+        <v>68.48294134922081</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -810,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,323 +852,313 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>68.38088725670931</v>
+        <v>67.82358739635596</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>68.58294972267063</v>
+        <v>67.94149549358059</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>69.5351253403157</v>
+        <v>68.51930638285853</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>70.43081793442168</v>
+        <v>69.06384947595568</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>70.42546283125513</v>
+        <v>69.05750457861492</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>64.87304682921798</v>
+        <v>65.65287872803188</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>65.08108618280909</v>
+        <v>65.82200886714503</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>65.6335130198355</v>
+        <v>66.22826625794823</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>66.06632355622156</v>
+        <v>66.60685806181803</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>66.12771960805014</v>
+        <v>66.75471779077789</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>66.06690942193902</v>
+        <v>66.76016788316326</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>67.41247768214825</v>
+        <v>67.72770514734015</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>67.65845946018602</v>
+        <v>68.38590870003257</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>68.25630768986564</v>
+        <v>68.92235253720612</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>68.89064443092089</v>
+        <v>69.31000512660586</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>69.2727355864584</v>
+        <v>69.61983347924664</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>69.19494664534015</v>
+        <v>69.52447190167825</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>69.72553414880804</v>
+        <v>69.97246213508186</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>69.86086647585117</v>
+        <v>70.12337658059307</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>71.60777589395808</v>
+        <v>71.30111256491496</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>70.61447281501307</v>
+        <v>70.71595366274323</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>70.10779816101621</v>
+        <v>70.39652766148542</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>70.26650516598842</v>
+        <v>70.52007706292289</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>69.90851320716837</v>
+        <v>70.33624594338299</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>70.12885880856771</v>
+        <v>70.49783487552872</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>70.47444931097988</v>
+        <v>70.70148148665541</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>71.05211743505777</v>
+        <v>71.10953125770007</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B29" t="n">
-        <v>70.86130988683175</v>
+        <v>70.88552500370633</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B30" t="n">
-        <v>70.85863556508062</v>
+        <v>70.8837952589852</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B31" t="n">
-        <v>70.85647344479607</v>
+        <v>70.91173969906353</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B32" t="n">
-        <v>72.7220432100172</v>
+        <v>72.10773953836764</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B33" t="n">
-        <v>71.6304410687019</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1206,7 +1206,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>1.270548468671915</v>
+        <v>71.45030869860169</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5508607987946276</v>
+        <v>71.30861486680428</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2102752523410785</v>
+        <v>71.19701074669356</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.09996328622001033</v>
+        <v>71.10738866087041</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02537994729640426</v>
+        <v>71.03295749773075</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
